--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>numero</t>
+  </si>
+  <si>
+    <t>tipoDocumentoInscripcion</t>
+  </si>
+  <si>
+    <t>numeroDocumentoInscripcion</t>
   </si>
   <si>
     <t>1</t>
@@ -133,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,9 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +197,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,12 +206,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,6 +268,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,73 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -325,49 +331,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,120 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -560,9 +551,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,21 +585,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -612,35 +599,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,124 +662,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1148,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1208,60 +1214,60 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
         <v>20580133845</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2">
         <v>1044512658</v>
@@ -1269,40 +1275,40 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="7"/>
@@ -1312,40 +1318,40 @@
     </row>
     <row r="4" ht="15.75" spans="1:17">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -103,7 +103,7 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>BANCOLOMBIA</t>
+    <t>Bancolombia</t>
   </si>
   <si>
     <t>Ahorros</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -175,7 +175,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,84 +241,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +287,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,6 +331,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,19 +373,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,133 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,22 +540,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,45 +613,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -637,16 +626,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,124 +662,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\registro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32944F-44FB-40E6-8C62-A9BEFBAACB34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20130" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +76,9 @@
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
+    <t>testing10</t>
+  </si>
+  <si>
     <t>1234</t>
   </si>
   <si>
@@ -110,40 +107,19 @@
   </si>
   <si>
     <t>Ahorros</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>423698529</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>95400152</t>
-  </si>
-  <si>
-    <t>sandrita69</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>0370</t>
-  </si>
-  <si>
-    <t>autotest10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +149,144 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,13 +305,208 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -217,37 +524,324 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -534,234 +1128,189 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
+    <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
+    <col min="9" max="10" width="23.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
+    <col min="12" max="13" width="16.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="27.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="12.8571428571429"/>
+    <col min="16" max="16" width="21.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:17">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2">
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4">
         <v>20580133845</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="4">
         <v>1044512658</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+    <row r="3" s="2" customFormat="1" spans="1:17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+    <row r="4" s="2" customFormat="1" ht="15.75" spans="1:17">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="M15" s="7"/>
+    <row r="15" spans="13:13">
+      <c r="M15" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4">
+      <formula1/>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>numeroDocumentoInscripcion</t>
   </si>
   <si>
+    <t>tipoFondo</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -107,6 +110,24 @@
   </si>
   <si>
     <t>Ahorros</t>
+  </si>
+  <si>
+    <t>Banco Av Villas</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>40612345678912345</t>
+  </si>
+  <si>
+    <t>Fondo de Inversión</t>
+  </si>
+  <si>
+    <t>12345678912345678</t>
+  </si>
+  <si>
+    <t>FIDUCUENTA</t>
   </si>
 </sst>
 </file>
@@ -119,7 +140,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,90 +156,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,8 +178,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,32 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +263,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -307,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,15 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +531,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -536,6 +554,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,75 +640,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,146 +664,149 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1154,161 +1175,238 @@
     <col min="15" max="15" width="12.8571428571429"/>
     <col min="16" max="16" width="21.5714285714286" customWidth="1"/>
     <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="38" customHeight="1" spans="1:17">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3">
+        <v>20580133845</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1044512658</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1044512658</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="4">
-        <v>20580133845</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="3">
         <v>1044512658</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15.75" spans="1:17">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+    <row r="5" ht="16" customHeight="1" spans="15:17">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="15" spans="13:13">
-      <c r="M15" s="13"/>
+      <c r="M15" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:J4">
-      <formula1/>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -73,61 +73,64 @@
     <t>1</t>
   </si>
   <si>
+    <t>48349402</t>
+  </si>
+  <si>
+    <t>Cédula de ciudadanía</t>
+  </si>
+  <si>
+    <t>autotest12</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Alterno</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Bancolombia</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>Banco Av Villas</t>
+  </si>
+  <si>
+    <t>Ahorros</t>
+  </si>
+  <si>
+    <t>Fondo de Inversión</t>
+  </si>
+  <si>
+    <t>0245002001766</t>
+  </si>
+  <si>
+    <t>FIDUCUENTA</t>
+  </si>
+  <si>
+    <t>Nequi</t>
+  </si>
+  <si>
     <t>1010111</t>
-  </si>
-  <si>
-    <t>Cédula de ciudadanía</t>
-  </si>
-  <si>
-    <t>testing10</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Alterno</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>Bancolombia</t>
-  </si>
-  <si>
-    <t>Ahorros</t>
-  </si>
-  <si>
-    <t>Banco Av Villas</t>
-  </si>
-  <si>
-    <t>Corriente</t>
-  </si>
-  <si>
-    <t>40612345678912345</t>
-  </si>
-  <si>
-    <t>Fondo de Inversión</t>
-  </si>
-  <si>
-    <t>12345678912345678</t>
-  </si>
-  <si>
-    <t>FIDUCUENTA</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,15 +159,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,63 +182,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,30 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,25 +324,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,19 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,133 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +547,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -562,7 +604,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,55 +643,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,129 +667,129 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -797,16 +800,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,14 +1158,14 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
     <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
     <col min="9" max="10" width="23.4285714285714" customWidth="1"/>
@@ -1227,18 +1227,18 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1250,7 +1250,7 @@
       <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1265,10 +1265,10 @@
       <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1278,13 +1278,13 @@
         <v>31</v>
       </c>
       <c r="O2" s="3">
-        <v>20580133845</v>
+        <v>40619402000</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="3">
-        <v>1044512658</v>
+        <v>1044512657</v>
       </c>
       <c r="R2" s="4"/>
     </row>
@@ -1292,7 +1292,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1304,7 +1304,7 @@
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1319,10 +1319,10 @@
       <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1331,8 +1331,8 @@
       <c r="N3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>34</v>
+      <c r="O3" s="3">
+        <v>40679402009</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>20</v>
@@ -1346,7 +1346,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1358,7 +1358,7 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1373,38 +1373,141 @@
       <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="3">
-        <v>1044512658</v>
+        <v>1044512659</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:18">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="3">
+        <v>40678280008</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1044512660</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="15:17">
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3">
+        <v>40678280007</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1044512659</v>
+      </c>
+      <c r="R6" s="4"/>
     </row>
     <row r="15" spans="13:13">
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -79,7 +79,7 @@
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
-    <t>autotest11</t>
+    <t>invictus10</t>
   </si>
   <si>
     <t>1234</t>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,6 +173,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -181,9 +211,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,115 +286,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,26 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,19 +578,49 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -629,169 +644,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,54 +816,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1163,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1284,13 +1284,13 @@
         <v>31</v>
       </c>
       <c r="O2" s="3">
-        <v>40616663004</v>
+        <v>40614987004</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="3">
-        <v>1044512657</v>
+        <v>43024987</v>
       </c>
       <c r="R2" s="4"/>
     </row>

--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\registro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -79,9 +84,6 @@
     <t>Cédula de ciudadanía</t>
   </si>
   <si>
-    <t>invictus10</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -136,20 +138,14 @@
     <t>pruebauser01</t>
   </si>
   <si>
-    <t>6789</t>
+    <t>testing10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,152 +160,8 @@
       <name val="Mic Shell Dlg"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,194 +180,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -551,251 +217,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -808,67 +234,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1155,33 +537,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
-    <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
-    <col min="9" max="10" width="23.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
-    <col min="12" max="13" width="16.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="27.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="12.8571428571429"/>
-    <col min="16" max="16" width="21.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
-    <col min="18" max="18" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1240,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1251,37 +633,37 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="O2" s="3">
         <v>40614987004</v>
@@ -1294,7 +676,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1305,37 +687,37 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="O3" s="3">
         <v>40676663006</v>
@@ -1348,7 +730,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1359,40 +741,40 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>20</v>
@@ -1401,10 +783,10 @@
         <v>1044512659</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:18">
+    <row r="5" spans="1:18" ht="15.95" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1415,37 +797,37 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3">
         <v>40676663009</v>
@@ -1458,48 +840,48 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:18">
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="O6" s="3">
         <v>40678280007</v>
@@ -1512,12 +894,11 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="15" spans="13:13">
+    <row r="15" spans="1:18">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/InscripcionProductos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\registro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\registro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4BCEA-8610-4D4E-AE0C-3E5CBA8CAE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -299,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +333,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,28 +577,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="27.875" customWidth="1"/>
+    <col min="15" max="15" width="12.875"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -622,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.05" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -633,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>21</v>
@@ -676,7 +711,7 @@
       </c>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.95" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -730,7 +765,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -786,7 +821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.95" customHeight="1">
+    <row r="5" spans="1:18" ht="16" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -840,7 +875,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.95" customHeight="1">
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
